--- a/script/测试用例 冷 手算.xlsx
+++ b/script/测试用例 冷 手算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10480" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="29868" windowHeight="13500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数配置" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="151">
   <si>
     <t>模式</t>
   </si>
@@ -471,7 +471,16 @@
     <t>调度次数</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>生成详单个数</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1265,7 +1274,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,7 +1328,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1703,14 +1710,14 @@
       <selection activeCell="B21" sqref="B21:Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.4636363636364" customWidth="1"/>
-    <col min="3" max="3" width="10.3818181818182" customWidth="1"/>
-    <col min="4" max="4" width="12.1090909090909" customWidth="1"/>
+    <col min="1" max="1" width="15.462962962963" customWidth="1"/>
+    <col min="3" max="3" width="10.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="12.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:20">
+    <row r="1" ht="15.6" spans="1:20">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1743,7 @@
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
     </row>
-    <row r="2" ht="16.5" spans="1:20">
+    <row r="2" ht="15.6" spans="1:20">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1762,7 +1769,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
     </row>
-    <row r="3" ht="16.5" spans="1:20">
+    <row r="3" ht="15.6" spans="1:20">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1788,15 +1795,15 @@
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
-    <row r="4" ht="16.5" spans="1:19">
-      <c r="A4" s="41" t="s">
+    <row r="4" ht="15.6" spans="1:19">
+      <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -1813,17 +1820,17 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" ht="16.5" spans="1:19">
-      <c r="A5" s="41" t="s">
+    <row r="5" ht="15.6" spans="1:19">
+      <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1840,15 +1847,15 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" ht="16.5" spans="1:19">
-      <c r="A6" s="41"/>
-      <c r="B6" s="30" t="s">
+    <row r="6" ht="15.6" spans="1:19">
+      <c r="A6" s="39"/>
+      <c r="B6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="14"/>
@@ -1867,15 +1874,15 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" ht="16.5" spans="1:19">
-      <c r="A7" s="41"/>
-      <c r="B7" s="30" t="s">
+    <row r="7" ht="15.6" spans="1:19">
+      <c r="A7" s="39"/>
+      <c r="B7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1892,7 +1899,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" ht="16.5" spans="1:20">
+    <row r="8" ht="15.6" spans="1:20">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1916,7 +1923,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" ht="16.5" spans="1:20">
+    <row r="9" ht="15.6" spans="1:20">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
         <v>16</v>
@@ -1944,7 +1951,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:20">
+    <row r="10" ht="15.6" spans="1:20">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
         <v>18</v>
@@ -1972,7 +1979,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" ht="16.5" spans="1:20">
+    <row r="11" ht="15.6" spans="1:20">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
         <v>20</v>
@@ -2000,7 +2007,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="1:20">
+    <row r="12" ht="15.6" spans="1:20">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>22</v>
@@ -2028,7 +2035,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="1:20">
+    <row r="13" ht="15.6" spans="1:20">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
         <v>24</v>
@@ -2056,10 +2063,10 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="1:21">
+    <row r="14" ht="15.6" spans="1:21">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="43"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2079,428 +2086,428 @@
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="1:21">
+    <row r="15" ht="15.6" spans="1:21">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:21">
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+    </row>
+    <row r="16" ht="15.6" spans="1:21">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:21">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:21">
       <c r="A17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:21">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+    </row>
+    <row r="18" ht="15.6" spans="1:21">
       <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-    </row>
-    <row r="19" ht="33" spans="1:21">
-      <c r="A19" s="45" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+    </row>
+    <row r="19" ht="31.2" spans="1:21">
+      <c r="A19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:17">
-      <c r="A20" s="45" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+    </row>
+    <row r="20" ht="15.6" spans="1:17">
+      <c r="A20" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="53"/>
-    </row>
-    <row r="21" ht="33" spans="1:17">
-      <c r="A21" s="45" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="51"/>
+    </row>
+    <row r="21" ht="31.2" spans="1:17">
+      <c r="A21" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:17">
-      <c r="A22" s="45" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+    </row>
+    <row r="22" ht="15.6" spans="1:17">
+      <c r="A22" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="53"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:17">
-      <c r="A23" s="45" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="51"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:17">
+      <c r="A23" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="53"/>
-    </row>
-    <row r="24" ht="33" spans="1:17">
-      <c r="A24" s="45" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="51"/>
+    </row>
+    <row r="24" ht="31.2" spans="1:17">
+      <c r="A24" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="53"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:17">
-      <c r="A25" s="47" t="s">
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="51"/>
+    </row>
+    <row r="25" ht="15.6" spans="1:17">
+      <c r="A25" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="45"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="50" t="s">
+      <c r="K27" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="50" t="s">
+      <c r="L27" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="50" t="s">
+      <c r="K28" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="M28" s="50" t="s">
+      <c r="M28" s="48" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="K29" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="50" t="s">
+      <c r="L29" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="50" t="s">
+      <c r="M29" s="48" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="50" t="s">
+      <c r="K30" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="50" t="s">
+      <c r="L30" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="M30" s="50" t="s">
+      <c r="M30" s="48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2529,30 +2536,30 @@
   <sheetPr/>
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="R18:S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6272727272727" customWidth="1"/>
-    <col min="2" max="3" width="7.38181818181818" customWidth="1"/>
-    <col min="4" max="6" width="7.75454545454545" customWidth="1"/>
-    <col min="7" max="7" width="6.25454545454545" customWidth="1"/>
+    <col min="1" max="1" width="10.6296296296296" customWidth="1"/>
+    <col min="2" max="3" width="7.37962962962963" customWidth="1"/>
+    <col min="4" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="6.25" customWidth="1"/>
     <col min="8" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="11" width="6.25454545454545" customWidth="1"/>
+    <col min="11" max="11" width="6.25" customWidth="1"/>
     <col min="12" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="6.25454545454545" customWidth="1"/>
+    <col min="15" max="15" width="6.25" customWidth="1"/>
     <col min="16" max="18" width="5.5" customWidth="1"/>
-    <col min="19" max="19" width="6.25454545454545" customWidth="1"/>
+    <col min="19" max="19" width="6.25" customWidth="1"/>
     <col min="20" max="21" width="5.5" customWidth="1"/>
-    <col min="22" max="23" width="6.25454545454545" customWidth="1"/>
+    <col min="22" max="23" width="6.25" customWidth="1"/>
     <col min="24" max="25" width="5.5" customWidth="1"/>
-    <col min="26" max="26" width="6.25454545454545" customWidth="1"/>
+    <col min="26" max="26" width="6.25" customWidth="1"/>
     <col min="28" max="32" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:32">
+    <row r="1" ht="16.2" spans="1:32">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -2577,41 +2584,41 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="25" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="17" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AB1" s="30" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AB1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="31" t="s">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" s="31"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:32">
+      <c r="AF1" s="30"/>
+    </row>
+    <row r="2" ht="16.2" spans="1:32">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2630,52 +2637,52 @@
       <c r="J2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="18" t="s">
         <v>89</v>
       </c>
       <c r="AB2" s="14"/>
@@ -2684,7 +2691,7 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="14"/>
     </row>
-    <row r="3" ht="16.5" spans="2:32">
+    <row r="3" ht="15.6" spans="2:32">
       <c r="B3" s="7" t="s">
         <v>90</v>
       </c>
@@ -2710,10 +2717,10 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
       <c r="AB3" s="10" t="s">
         <v>92</v>
       </c>
@@ -2722,7 +2729,7 @@
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
     </row>
-    <row r="4" ht="16.5" spans="1:32">
+    <row r="4" ht="15.6" spans="1:32">
       <c r="A4" s="11">
         <v>0</v>
       </c>
@@ -2745,32 +2752,32 @@
       <c r="J4" s="12">
         <v>0</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="33">
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="32">
         <v>1</v>
       </c>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:32">
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:32">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -2797,52 +2804,52 @@
       <c r="J5" s="13">
         <v>0.5</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>28</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>25</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="22">
         <v>0</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="23">
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="22">
         <v>35</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="22">
         <v>25</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Y5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="22">
         <v>0</v>
       </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="33">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="32">
         <v>1</v>
       </c>
-      <c r="AC5" s="33">
+      <c r="AC5" s="32">
         <v>2</v>
       </c>
-      <c r="AD5" s="33">
+      <c r="AD5" s="32">
         <v>5</v>
       </c>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:32">
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:32">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -2863,62 +2870,62 @@
       <c r="J6" s="13">
         <v>0.5</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>27.5</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>25</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="22">
         <v>0.5</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="23">
         <v>30</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="23">
         <v>25</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="23">
         <v>0</v>
       </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="23">
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="22">
         <v>34.5</v>
       </c>
-      <c r="X6" s="23">
+      <c r="X6" s="22">
         <v>25</v>
       </c>
-      <c r="Y6" s="23" t="s">
+      <c r="Y6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="Z6" s="22">
         <v>0.5</v>
       </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="33">
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="32">
         <v>2</v>
       </c>
-      <c r="AC6" s="33">
+      <c r="AC6" s="32">
         <v>3</v>
       </c>
-      <c r="AD6" s="33">
+      <c r="AD6" s="32">
         <v>5</v>
       </c>
-      <c r="AE6" s="34">
+      <c r="AE6" s="33">
         <v>1</v>
       </c>
-      <c r="AF6" s="34"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:32">
+      <c r="AF6" s="33"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:32">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2943,68 +2950,68 @@
       <c r="J7" s="13">
         <v>0</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>27</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="22">
         <v>19</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23">
+      <c r="M7" s="22"/>
+      <c r="N7" s="22">
         <v>0.5</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="23">
         <v>29.5</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="23">
         <v>25</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="23">
         <v>0.5</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="28">
         <v>29</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="28">
         <v>25</v>
       </c>
-      <c r="U7" s="29" t="s">
+      <c r="U7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="28">
         <v>0</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="22">
         <v>34</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="22">
         <v>25</v>
       </c>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23">
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22">
         <v>0.5</v>
       </c>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="33">
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="32">
         <v>1</v>
       </c>
-      <c r="AC7" s="33">
+      <c r="AC7" s="32">
         <v>3</v>
       </c>
-      <c r="AD7" s="33">
+      <c r="AD7" s="32">
         <v>4</v>
       </c>
-      <c r="AE7" s="34">
+      <c r="AE7" s="33">
         <v>2</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:32">
+    <row r="8" ht="15.6" spans="1:32">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -3027,68 +3034,68 @@
       <c r="J8" s="13">
         <v>0.5</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>27.5</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="22">
         <v>19</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="22">
         <v>0</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="23">
         <v>29</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="23">
         <v>25</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24">
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23">
         <v>0.5</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="28">
         <v>28.5</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="28">
         <v>25</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="U8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="28">
         <v>0.5</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="22">
         <v>34.5</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="22">
         <v>22</v>
       </c>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23">
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22">
         <v>0</v>
       </c>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="33">
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="32">
         <v>1</v>
       </c>
-      <c r="AC8" s="33">
+      <c r="AC8" s="32">
         <v>2</v>
       </c>
-      <c r="AD8" s="33">
+      <c r="AD8" s="32">
         <v>4</v>
       </c>
-      <c r="AE8" s="34">
+      <c r="AE8" s="33">
         <v>3</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AF8" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:32">
+    <row r="9" ht="15.6" spans="1:32">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -3111,68 +3118,68 @@
       <c r="J9" s="13">
         <v>0.5</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>27</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="22">
         <v>19</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="22">
         <v>0.5</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="23">
         <v>29.5</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="23">
         <v>25</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24">
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23">
         <v>0</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="28">
         <v>28</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="28">
         <v>25</v>
       </c>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="U9" s="28"/>
+      <c r="V9" s="28">
         <v>0.5</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W9" s="22">
         <v>35</v>
       </c>
-      <c r="X9" s="23">
+      <c r="X9" s="22">
         <v>22</v>
       </c>
-      <c r="Y9" s="23" t="s">
+      <c r="Y9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z9" s="22">
         <v>0</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="33">
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="32">
         <v>1</v>
       </c>
-      <c r="AC9" s="33">
+      <c r="AC9" s="32">
         <v>2</v>
       </c>
-      <c r="AD9" s="33">
+      <c r="AD9" s="32">
         <v>5</v>
       </c>
-      <c r="AE9" s="34">
+      <c r="AE9" s="33">
         <v>3</v>
       </c>
-      <c r="AF9" s="34">
+      <c r="AF9" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:32">
+    <row r="10" ht="15.6" spans="1:32">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -3195,66 +3202,66 @@
       <c r="J10" s="13">
         <v>1</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>26.5</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="22">
         <v>19</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23">
+      <c r="M10" s="22"/>
+      <c r="N10" s="22">
         <v>0.5</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="23">
         <v>29</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="23">
         <v>25</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="23">
         <v>0</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="28">
         <v>28.5</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="28">
         <v>25</v>
       </c>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29">
+      <c r="U10" s="28"/>
+      <c r="V10" s="28">
         <v>0</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="22">
         <v>34.5</v>
       </c>
-      <c r="X10" s="23">
+      <c r="X10" s="22">
         <v>22</v>
       </c>
-      <c r="Y10" s="23" t="s">
+      <c r="Y10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="Z10" s="22">
         <v>0.5</v>
       </c>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="33">
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="32">
         <v>1</v>
       </c>
-      <c r="AC10" s="33">
+      <c r="AC10" s="32">
         <v>3</v>
       </c>
-      <c r="AD10" s="33">
+      <c r="AD10" s="32">
         <v>5</v>
       </c>
-      <c r="AE10" s="34">
+      <c r="AE10" s="33">
         <v>4</v>
       </c>
-      <c r="AF10" s="34"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:32">
+      <c r="AF10" s="33"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:32">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -3279,68 +3286,68 @@
       <c r="J11" s="13">
         <v>1</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>27</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="22">
         <v>19</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23">
+      <c r="M11" s="22"/>
+      <c r="N11" s="22">
         <v>0</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="23">
         <v>28.5</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="23">
         <v>25</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="Q11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="23">
         <v>0.5</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="28">
         <v>29</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="28">
         <v>25</v>
       </c>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29">
+      <c r="U11" s="28"/>
+      <c r="V11" s="28">
         <v>0</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="22">
         <v>34</v>
       </c>
-      <c r="X11" s="23">
+      <c r="X11" s="22">
         <v>22</v>
       </c>
-      <c r="Y11" s="23" t="s">
+      <c r="Y11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="Z11" s="22">
         <v>0.5</v>
       </c>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="33">
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="32">
         <v>1</v>
       </c>
-      <c r="AC11" s="33">
+      <c r="AC11" s="32">
         <v>3</v>
       </c>
-      <c r="AD11" s="33">
+      <c r="AD11" s="32">
         <v>5</v>
       </c>
-      <c r="AE11" s="34">
+      <c r="AE11" s="33">
         <v>2</v>
       </c>
-      <c r="AF11" s="34">
+      <c r="AF11" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:32">
+    <row r="12" ht="15.6" spans="1:32">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -3361,68 +3368,68 @@
       <c r="J12" s="13">
         <v>1</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <v>27.5</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="22">
         <v>19</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23">
+      <c r="M12" s="22"/>
+      <c r="N12" s="22">
         <v>0</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="23">
         <v>28</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="23">
         <v>25</v>
       </c>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24">
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23">
         <v>0.5</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="28">
         <v>29</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="28">
         <v>25</v>
       </c>
-      <c r="U12" s="29" t="s">
+      <c r="U12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V12" s="29">
+      <c r="V12" s="28">
         <v>0</v>
       </c>
-      <c r="W12" s="23">
+      <c r="W12" s="22">
         <v>33</v>
       </c>
-      <c r="X12" s="23">
+      <c r="X12" s="22">
         <v>22</v>
       </c>
-      <c r="Y12" s="23" t="s">
+      <c r="Y12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z12" s="23">
+      <c r="Z12" s="22">
         <v>1</v>
       </c>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="33">
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="32">
         <v>1</v>
       </c>
-      <c r="AC12" s="33">
+      <c r="AC12" s="32">
         <v>4</v>
       </c>
-      <c r="AD12" s="33">
+      <c r="AD12" s="32">
         <v>5</v>
       </c>
-      <c r="AE12" s="34">
+      <c r="AE12" s="33">
         <v>2</v>
       </c>
-      <c r="AF12" s="34">
+      <c r="AF12" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:32">
+    <row r="13" ht="15.6" spans="1:32">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -3447,68 +3454,68 @@
       <c r="J13" s="13">
         <v>1</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="22">
         <v>28</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="22">
         <v>19</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23">
+      <c r="M13" s="22"/>
+      <c r="N13" s="22">
         <v>0</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="23">
         <v>28.5</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="23">
         <v>25</v>
       </c>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24">
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23">
         <v>0</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="28">
         <v>28.5</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="28">
         <v>18</v>
       </c>
-      <c r="U13" s="29" t="s">
+      <c r="U13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="28">
         <v>0.5</v>
       </c>
-      <c r="W13" s="23">
+      <c r="W13" s="22">
         <v>32</v>
       </c>
-      <c r="X13" s="23">
+      <c r="X13" s="22">
         <v>22</v>
       </c>
-      <c r="Y13" s="23" t="s">
+      <c r="Y13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z13" s="23">
+      <c r="Z13" s="22">
         <v>1</v>
       </c>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="33">
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="32">
         <v>1</v>
       </c>
-      <c r="AC13" s="33">
+      <c r="AC13" s="32">
         <v>4</v>
       </c>
-      <c r="AD13" s="33">
+      <c r="AD13" s="32">
         <v>5</v>
       </c>
-      <c r="AE13" s="34">
+      <c r="AE13" s="33">
         <v>2</v>
       </c>
-      <c r="AF13" s="34">
+      <c r="AF13" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:32">
+    <row r="14" ht="15.6" spans="1:32">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -3529,68 +3536,68 @@
       <c r="J14" s="13">
         <v>1</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <v>28</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="22">
         <v>19</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23">
+      <c r="M14" s="22"/>
+      <c r="N14" s="22">
         <v>0</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="23">
         <v>29</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="23">
         <v>25</v>
       </c>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24">
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23">
         <v>0</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="28">
         <v>27.5</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="28">
         <v>18</v>
       </c>
-      <c r="U14" s="29" t="s">
+      <c r="U14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="29">
+      <c r="V14" s="28">
         <v>1</v>
       </c>
-      <c r="W14" s="23">
+      <c r="W14" s="22">
         <v>31</v>
       </c>
-      <c r="X14" s="23">
+      <c r="X14" s="22">
         <v>22</v>
       </c>
-      <c r="Y14" s="23" t="s">
+      <c r="Y14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="23">
+      <c r="Z14" s="22">
         <v>1</v>
       </c>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="33">
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="32">
         <v>1</v>
       </c>
-      <c r="AC14" s="33">
+      <c r="AC14" s="32">
         <v>4</v>
       </c>
-      <c r="AD14" s="33">
+      <c r="AD14" s="32">
         <v>5</v>
       </c>
-      <c r="AE14" s="34">
+      <c r="AE14" s="33">
         <v>2</v>
       </c>
-      <c r="AF14" s="34">
+      <c r="AF14" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:32">
+    <row r="15" ht="15.6" spans="1:32">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -3613,68 +3620,68 @@
       <c r="J15" s="13">
         <v>1</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="22">
         <v>28</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="22">
         <v>22</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23">
+      <c r="M15" s="22"/>
+      <c r="N15" s="22">
         <v>0</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="23">
         <v>29.5</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="23">
         <v>25</v>
       </c>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24">
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23">
         <v>0</v>
       </c>
-      <c r="S15" s="29">
+      <c r="S15" s="28">
         <v>26.5</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="28">
         <v>18</v>
       </c>
-      <c r="U15" s="29" t="s">
+      <c r="U15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="28">
         <v>1</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15" s="22">
         <v>30</v>
       </c>
-      <c r="X15" s="23">
+      <c r="X15" s="22">
         <v>22</v>
       </c>
-      <c r="Y15" s="23" t="s">
+      <c r="Y15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="23">
+      <c r="Z15" s="22">
         <v>1</v>
       </c>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="33">
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="32">
         <v>1</v>
       </c>
-      <c r="AC15" s="33">
+      <c r="AC15" s="32">
         <v>4</v>
       </c>
-      <c r="AD15" s="33">
+      <c r="AD15" s="32">
         <v>5</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15" s="33">
         <v>2</v>
       </c>
-      <c r="AF15" s="34">
+      <c r="AF15" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:32">
+    <row r="16" ht="15.6" spans="1:32">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -3697,68 +3704,68 @@
       <c r="J16" s="13">
         <v>1</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="22">
         <v>28</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="22">
         <v>22</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="22">
         <v>0</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="23">
         <v>30</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="23">
         <v>25</v>
       </c>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24">
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23">
         <v>0</v>
       </c>
-      <c r="S16" s="29">
+      <c r="S16" s="28">
         <v>25.5</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="28">
         <v>18</v>
       </c>
-      <c r="U16" s="29" t="s">
+      <c r="U16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="28">
         <v>1</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="22">
         <v>29</v>
       </c>
-      <c r="X16" s="23">
+      <c r="X16" s="22">
         <v>22</v>
       </c>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23">
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22">
         <v>1</v>
       </c>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="33">
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="32">
         <v>1</v>
       </c>
-      <c r="AC16" s="33">
+      <c r="AC16" s="32">
         <v>4</v>
       </c>
-      <c r="AD16" s="33">
+      <c r="AD16" s="32">
         <v>2</v>
       </c>
-      <c r="AE16" s="34">
+      <c r="AE16" s="33">
         <v>3</v>
       </c>
-      <c r="AF16" s="34">
+      <c r="AF16" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:32">
+    <row r="17" ht="15.6" spans="1:32">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -3779,68 +3786,68 @@
       <c r="J17" s="13">
         <v>1</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <v>27.5</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="22">
         <v>22</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="22">
         <v>0.5</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="23">
         <v>30</v>
       </c>
-      <c r="P17" s="24" t="s">
+      <c r="P17" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24">
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23">
         <v>0</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="28">
         <v>24.5</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="28">
         <v>18</v>
       </c>
-      <c r="U17" s="29" t="s">
+      <c r="U17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="V17" s="29">
+      <c r="V17" s="28">
         <v>1</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17" s="22">
         <v>29.5</v>
       </c>
-      <c r="X17" s="23">
+      <c r="X17" s="22">
         <v>22</v>
       </c>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23">
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22">
         <v>0</v>
       </c>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="36">
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="35">
         <v>1</v>
       </c>
-      <c r="AC17" s="36">
+      <c r="AC17" s="35">
         <v>2</v>
       </c>
-      <c r="AD17" s="36">
+      <c r="AD17" s="35">
         <v>4</v>
       </c>
-      <c r="AE17" s="37">
+      <c r="AE17" s="36">
         <v>3</v>
       </c>
-      <c r="AF17" s="34">
+      <c r="AF17" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:32">
+    <row r="18" ht="15.6" spans="1:32">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -3863,68 +3870,68 @@
       <c r="J18" s="13">
         <v>0.5</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="22">
         <v>27</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="22">
         <v>22</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="22">
         <v>0.5</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="23">
         <v>30</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="23">
         <v>24</v>
       </c>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24">
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23">
         <v>0</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T18" s="28">
         <v>18</v>
       </c>
-      <c r="U18" s="29" t="s">
+      <c r="U18" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="V18" s="29">
+      <c r="V18" s="28">
         <v>1</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18" s="22">
         <v>29.66</v>
       </c>
-      <c r="X18" s="23">
+      <c r="X18" s="22">
         <v>22</v>
       </c>
-      <c r="Y18" s="23" t="s">
+      <c r="Y18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Z18" s="23">
+      <c r="Z18" s="22">
         <v>0.16</v>
       </c>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="36">
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="35">
         <v>2</v>
       </c>
-      <c r="AC18" s="36" t="s">
+      <c r="AC18" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="AD18" s="36" t="s">
+      <c r="AD18" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AE18" s="37" t="s">
+      <c r="AE18" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" s="34"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:32">
+      <c r="AF18" s="33"/>
+    </row>
+    <row r="19" ht="15.6" spans="1:32">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -3945,68 +3952,68 @@
       <c r="J19" s="13">
         <v>0</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="22">
         <v>26.5</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="22">
         <v>22</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="O19" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="P19" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24" t="s">
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="S19" s="29" t="s">
+      <c r="S19" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="T19" s="29" t="s">
+      <c r="T19" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="U19" s="29" t="s">
+      <c r="U19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="V19" s="29" t="s">
+      <c r="V19" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="W19" s="23" t="s">
+      <c r="W19" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="X19" s="23" t="s">
+      <c r="X19" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y19" s="23" t="s">
+      <c r="Y19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z19" s="23" t="s">
+      <c r="Z19" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="36" t="s">
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AC19" s="36" t="s">
+      <c r="AC19" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="AD19" s="36" t="s">
+      <c r="AD19" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AE19" s="37" t="s">
+      <c r="AE19" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AF19" s="34"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:32">
+      <c r="AF19" s="33"/>
+    </row>
+    <row r="20" ht="15.6" spans="1:32">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -4027,66 +4034,66 @@
       <c r="J20" s="13">
         <v>0</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23" t="s">
+      <c r="M20" s="22"/>
+      <c r="N20" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="O20" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P20" s="24" t="s">
+      <c r="P20" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q20" s="24" t="s">
+      <c r="Q20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R20" s="24" t="s">
+      <c r="R20" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="S20" s="29" t="s">
+      <c r="S20" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="T20" s="29" t="s">
+      <c r="T20" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="U20" s="29" t="s">
+      <c r="U20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="V20" s="29" t="s">
+      <c r="V20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="W20" s="23" t="s">
+      <c r="W20" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="X20" s="23" t="s">
+      <c r="X20" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y20" s="23" t="s">
+      <c r="Y20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z20" s="23" t="s">
+      <c r="Z20" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="36" t="s">
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AC20" s="36" t="s">
+      <c r="AC20" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="AD20" s="36" t="s">
+      <c r="AD20" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="34"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:32">
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="33"/>
+    </row>
+    <row r="21" ht="15.6" spans="1:32">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -4107,66 +4114,66 @@
       <c r="J21" s="13">
         <v>0</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23" t="s">
+      <c r="M21" s="22"/>
+      <c r="N21" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="24" t="s">
+      <c r="O21" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="P21" s="24" t="s">
+      <c r="P21" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="24" t="s">
+      <c r="R21" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="S21" s="29" t="s">
+      <c r="S21" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="T21" s="29" t="s">
+      <c r="T21" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="U21" s="29" t="s">
+      <c r="U21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="29" t="s">
+      <c r="V21" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="W21" s="23" t="s">
+      <c r="W21" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="X21" s="23" t="s">
+      <c r="X21" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y21" s="23" t="s">
+      <c r="Y21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="23" t="s">
+      <c r="Z21" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="36" t="s">
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AC21" s="36" t="s">
+      <c r="AC21" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="AD21" s="36" t="s">
+      <c r="AD21" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="34"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:32">
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="33"/>
+    </row>
+    <row r="22" ht="15.6" spans="1:32">
       <c r="A22" s="11">
         <v>18</v>
       </c>
@@ -4191,66 +4198,66 @@
       <c r="J22" s="13">
         <v>0</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23" t="s">
+      <c r="M22" s="22"/>
+      <c r="N22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="P22" s="24" t="s">
+      <c r="P22" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q22" s="24" t="s">
+      <c r="Q22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="24" t="s">
+      <c r="R22" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S22" s="29" t="s">
+      <c r="S22" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="T22" s="29" t="s">
+      <c r="T22" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29" t="s">
+      <c r="U22" s="28"/>
+      <c r="V22" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="W22" s="23" t="s">
+      <c r="W22" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="X22" s="23" t="s">
+      <c r="X22" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y22" s="23" t="s">
+      <c r="Y22" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="23" t="s">
+      <c r="Z22" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="36" t="s">
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AC22" s="36" t="s">
+      <c r="AC22" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AD22" s="36" t="s">
+      <c r="AD22" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AE22" s="37" t="s">
+      <c r="AE22" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="AF22" s="34"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:32">
+      <c r="AF22" s="33"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:32">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -4273,68 +4280,68 @@
       <c r="J23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23" t="s">
+      <c r="M23" s="22"/>
+      <c r="N23" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="P23" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R23" s="24" t="s">
+      <c r="R23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S23" s="29" t="s">
+      <c r="S23" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="T23" s="29" t="s">
+      <c r="T23" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29" t="s">
+      <c r="U23" s="28"/>
+      <c r="V23" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="W23" s="23" t="s">
+      <c r="W23" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="X23" s="23" t="s">
+      <c r="X23" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y23" s="23" t="s">
+      <c r="Y23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z23" s="23" t="s">
+      <c r="Z23" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="36" t="s">
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AC23" s="36" t="s">
+      <c r="AC23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AD23" s="36" t="s">
+      <c r="AD23" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AE23" s="37" t="s">
+      <c r="AE23" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="AF23" s="34">
+      <c r="AF23" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:32">
+    <row r="24" ht="15.6" spans="1:32">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -4355,66 +4362,66 @@
       <c r="J24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="O24" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="P24" s="24" t="s">
+      <c r="P24" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q24" s="24" t="s">
+      <c r="Q24" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="24" t="s">
+      <c r="R24" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S24" s="29" t="s">
+      <c r="S24" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="T24" s="29" t="s">
+      <c r="T24" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="U24" s="29" t="s">
+      <c r="U24" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V24" s="29" t="s">
+      <c r="V24" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="W24" s="23" t="s">
+      <c r="W24" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="X24" s="23" t="s">
+      <c r="X24" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23" t="s">
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="36" t="s">
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AC24" s="36" t="s">
+      <c r="AC24" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AD24" s="36" t="s">
+      <c r="AD24" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="34"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:32">
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="33"/>
+    </row>
+    <row r="25" ht="15.6" spans="1:32">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -4433,62 +4440,62 @@
       <c r="J25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="O25" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="24" t="s">
+      <c r="P25" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q25" s="24" t="s">
+      <c r="Q25" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R25" s="24" t="s">
+      <c r="R25" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S25" s="29" t="s">
+      <c r="S25" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="T25" s="29" t="s">
+      <c r="T25" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29" t="s">
+      <c r="U25" s="28"/>
+      <c r="V25" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="W25" s="23" t="s">
+      <c r="W25" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="X25" s="23" t="s">
+      <c r="X25" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23" t="s">
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="36" t="s">
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AC25" s="36" t="s">
+      <c r="AC25" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="34"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:32">
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="33"/>
+    </row>
+    <row r="26" ht="15.6" spans="1:32">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -4511,62 +4518,62 @@
       <c r="J26" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N26" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="O26" s="24" t="s">
+      <c r="O26" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="P26" s="24" t="s">
+      <c r="P26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24" t="s">
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S26" s="29" t="s">
+      <c r="S26" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="T26" s="29" t="s">
+      <c r="T26" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="23" t="s">
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="X26" s="23" t="s">
+      <c r="X26" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Y26" s="23" t="s">
+      <c r="Y26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z26" s="23" t="s">
+      <c r="Z26" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="36" t="s">
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AC26" s="36" t="s">
+      <c r="AC26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AD26" s="36" t="s">
+      <c r="AD26" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="38"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:32">
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="37"/>
+    </row>
+    <row r="27" ht="15.6" spans="1:32">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -4587,62 +4594,62 @@
       <c r="J27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="23" t="s">
+      <c r="N27" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="O27" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="P27" s="24" t="s">
+      <c r="P27" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24" t="s">
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="T27" s="29" t="s">
+      <c r="T27" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="U27" s="29" t="s">
+      <c r="U27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V27" s="29" t="s">
+      <c r="V27" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="W27" s="23" t="s">
+      <c r="W27" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="X27" s="23" t="s">
+      <c r="X27" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23" t="s">
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="36" t="s">
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AC27" s="36" t="s">
+      <c r="AC27" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="38"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:32">
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="37"/>
+    </row>
+    <row r="28" ht="15.6" spans="1:32">
       <c r="A28" s="11">
         <v>24</v>
       </c>
@@ -4663,62 +4670,62 @@
       <c r="J28" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="O28" s="24" t="s">
+      <c r="O28" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="P28" s="24" t="s">
+      <c r="P28" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24" t="s">
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="S28" s="29" t="s">
+      <c r="S28" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="T28" s="29" t="s">
+      <c r="T28" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="U28" s="29" t="s">
+      <c r="U28" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V28" s="29" t="s">
+      <c r="V28" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="W28" s="23" t="s">
+      <c r="W28" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="X28" s="23" t="s">
+      <c r="X28" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23" t="s">
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="36" t="s">
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AC28" s="36" t="s">
+      <c r="AC28" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="38"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:32">
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="37"/>
+    </row>
+    <row r="29" ht="15.6" spans="1:32">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -4741,56 +4748,56 @@
       <c r="J29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23" t="s">
+      <c r="M29" s="22"/>
+      <c r="N29" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="O29" s="24" t="s">
+      <c r="O29" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="P29" s="24" t="s">
+      <c r="P29" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24" t="s">
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="S29" s="29" t="s">
+      <c r="S29" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="T29" s="29" t="s">
+      <c r="T29" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="U29" s="29" t="s">
+      <c r="U29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="29" t="s">
+      <c r="V29" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="W29" s="23" t="s">
+      <c r="W29" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="X29" s="23" t="s">
+      <c r="X29" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23" t="s">
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="38"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:32">
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="37"/>
+    </row>
+    <row r="30" ht="15.6" spans="1:32">
       <c r="A30" s="11" t="s">
         <v>140</v>
       </c>
@@ -4805,300 +4812,320 @@
       <c r="J30" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23" t="s">
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24" t="s">
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29" t="s">
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23" t="s">
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="37"/>
-      <c r="AF30" s="38"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:32">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="40"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:32">
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="37"/>
+    </row>
+    <row r="31" ht="15.6" spans="1:32">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="38"/>
+    </row>
+    <row r="32" ht="15.6" spans="1:32">
       <c r="A32" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="40"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:31">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="38"/>
+    </row>
+    <row r="33" ht="15.6" spans="1:31">
       <c r="A33" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:31">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:31">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:31">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:31">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-    </row>
-    <row r="38" ht="16.5" spans="7:31">
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="39"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="39"/>
+        <v>148</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+    </row>
+    <row r="34" ht="15.6" spans="1:31">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+    </row>
+    <row r="35" ht="15.6" spans="1:31">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+    </row>
+    <row r="36" ht="15.6" spans="1:31">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+    </row>
+    <row r="37" ht="15.6" spans="1:31">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+    </row>
+    <row r="38" ht="15.6" spans="7:31">
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/script/测试用例 冷 手算.xlsx
+++ b/script/测试用例 冷 手算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="10480" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数配置" sheetId="6" r:id="rId1"/>
@@ -1710,14 +1710,14 @@
       <selection activeCell="B21" sqref="B21:Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.462962962963" customWidth="1"/>
-    <col min="3" max="3" width="10.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="12.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="15.4636363636364" customWidth="1"/>
+    <col min="3" max="3" width="10.3818181818182" customWidth="1"/>
+    <col min="4" max="4" width="12.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:20">
+    <row r="1" ht="16.5" spans="1:20">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
     </row>
-    <row r="2" ht="15.6" spans="1:20">
+    <row r="2" ht="16.5" spans="1:20">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
     </row>
-    <row r="3" ht="15.6" spans="1:20">
+    <row r="3" ht="16.5" spans="1:20">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
-    <row r="4" ht="15.6" spans="1:19">
+    <row r="4" ht="16.5" spans="1:19">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" ht="15.6" spans="1:19">
+    <row r="5" ht="16.5" spans="1:19">
       <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" ht="15.6" spans="1:19">
+    <row r="6" ht="16.5" spans="1:19">
       <c r="A6" s="39"/>
       <c r="B6" s="29" t="s">
         <v>10</v>
@@ -1874,7 +1874,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" ht="15.6" spans="1:19">
+    <row r="7" ht="16.5" spans="1:19">
       <c r="A7" s="39"/>
       <c r="B7" s="29" t="s">
         <v>13</v>
@@ -1899,7 +1899,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" ht="15.6" spans="1:20">
+    <row r="8" ht="16.5" spans="1:20">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" ht="15.6" spans="1:20">
+    <row r="9" ht="16.5" spans="1:20">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
         <v>16</v>
@@ -1951,7 +1951,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" ht="15.6" spans="1:20">
+    <row r="10" ht="16.5" spans="1:20">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
         <v>18</v>
@@ -1979,7 +1979,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" ht="15.6" spans="1:20">
+    <row r="11" ht="16.5" spans="1:20">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
         <v>20</v>
@@ -2007,7 +2007,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:20">
+    <row r="12" ht="16.5" spans="1:20">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>22</v>
@@ -2035,7 +2035,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" ht="15.6" spans="1:20">
+    <row r="13" ht="16.5" spans="1:20">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
         <v>24</v>
@@ -2063,7 +2063,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:21">
+    <row r="14" ht="16.5" spans="1:21">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="41"/>
@@ -2086,7 +2086,7 @@
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:21">
+    <row r="15" ht="16.5" spans="1:21">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
     </row>
-    <row r="16" ht="15.6" spans="1:21">
+    <row r="16" ht="16.5" spans="1:21">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
     </row>
-    <row r="17" ht="15.6" spans="1:21">
+    <row r="17" ht="16.5" spans="1:21">
       <c r="A17" s="11" t="s">
         <v>29</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
     </row>
-    <row r="18" ht="15.6" spans="1:21">
+    <row r="18" ht="16.5" spans="1:21">
       <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
     </row>
-    <row r="19" ht="31.2" spans="1:21">
+    <row r="19" ht="33" spans="1:21">
       <c r="A19" s="43" t="s">
         <v>33</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="T19" s="50"/>
       <c r="U19" s="50"/>
     </row>
-    <row r="20" ht="15.6" spans="1:17">
+    <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="43" t="s">
         <v>35</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="P20" s="44"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" ht="31.2" spans="1:17">
+    <row r="21" ht="33" spans="1:17">
       <c r="A21" s="43" t="s">
         <v>37</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
     </row>
-    <row r="22" ht="15.6" spans="1:17">
+    <row r="22" ht="16.5" spans="1:17">
       <c r="A22" s="43" t="s">
         <v>39</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="P22" s="44"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" ht="15.6" spans="1:17">
+    <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="43" t="s">
         <v>41</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="P23" s="44"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" ht="31.2" spans="1:17">
+    <row r="24" ht="33" spans="1:17">
       <c r="A24" s="43" t="s">
         <v>43</v>
       </c>
@@ -2336,7 +2336,7 @@
       <c r="P24" s="44"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" ht="15.6" spans="1:17">
+    <row r="25" ht="16.5" spans="1:17">
       <c r="A25" s="45" t="s">
         <v>45</v>
       </c>
@@ -2536,30 +2536,30 @@
   <sheetPr/>
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="R18:S19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6296296296296" customWidth="1"/>
-    <col min="2" max="3" width="7.37962962962963" customWidth="1"/>
-    <col min="4" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
+    <col min="1" max="1" width="10.6272727272727" customWidth="1"/>
+    <col min="2" max="3" width="7.38181818181818" customWidth="1"/>
+    <col min="4" max="6" width="7.75454545454545" customWidth="1"/>
+    <col min="7" max="7" width="6.25454545454545" customWidth="1"/>
     <col min="8" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="11" width="6.25" customWidth="1"/>
+    <col min="11" max="11" width="6.25454545454545" customWidth="1"/>
     <col min="12" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="6.25" customWidth="1"/>
+    <col min="15" max="15" width="6.25454545454545" customWidth="1"/>
     <col min="16" max="18" width="5.5" customWidth="1"/>
-    <col min="19" max="19" width="6.25" customWidth="1"/>
+    <col min="19" max="19" width="6.25454545454545" customWidth="1"/>
     <col min="20" max="21" width="5.5" customWidth="1"/>
-    <col min="22" max="23" width="6.25" customWidth="1"/>
+    <col min="22" max="23" width="6.25454545454545" customWidth="1"/>
     <col min="24" max="25" width="5.5" customWidth="1"/>
-    <col min="26" max="26" width="6.25" customWidth="1"/>
+    <col min="26" max="26" width="6.25454545454545" customWidth="1"/>
     <col min="28" max="32" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="1:32">
+    <row r="1" ht="16.5" spans="1:32">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AF1" s="30"/>
     </row>
-    <row r="2" ht="16.2" spans="1:32">
+    <row r="2" ht="16.5" spans="1:32">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2691,7 +2691,7 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="14"/>
     </row>
-    <row r="3" ht="15.6" spans="2:32">
+    <row r="3" ht="16.5" spans="2:32">
       <c r="B3" s="7" t="s">
         <v>90</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
     </row>
-    <row r="4" ht="15.6" spans="1:32">
+    <row r="4" ht="16.5" spans="1:32">
       <c r="A4" s="11">
         <v>0</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="AE4" s="33"/>
       <c r="AF4" s="33"/>
     </row>
-    <row r="5" ht="15.6" spans="1:32">
+    <row r="5" ht="16.5" spans="1:32">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="AE5" s="33"/>
       <c r="AF5" s="33"/>
     </row>
-    <row r="6" ht="15.6" spans="1:32">
+    <row r="6" ht="16.5" spans="1:32">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="AF6" s="33"/>
     </row>
-    <row r="7" ht="15.6" spans="1:32">
+    <row r="7" ht="16.5" spans="1:32">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:32">
+    <row r="8" ht="16.5" spans="1:32">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:32">
+    <row r="9" ht="16.5" spans="1:32">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:32">
+    <row r="10" ht="16.5" spans="1:32">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="AF10" s="33"/>
     </row>
-    <row r="11" ht="15.6" spans="1:32">
+    <row r="11" ht="16.5" spans="1:32">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:32">
+    <row r="12" ht="16.5" spans="1:32">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:32">
+    <row r="13" ht="16.5" spans="1:32">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:32">
+    <row r="14" ht="16.5" spans="1:32">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:32">
+    <row r="15" ht="16.5" spans="1:32">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:32">
+    <row r="16" ht="16.5" spans="1:32">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:32">
+    <row r="17" ht="16.5" spans="1:32">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:32">
+    <row r="18" ht="16.5" spans="1:32">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="AF18" s="33"/>
     </row>
-    <row r="19" ht="15.6" spans="1:32">
+    <row r="19" ht="16.5" spans="1:32">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="AF19" s="33"/>
     </row>
-    <row r="20" ht="15.6" spans="1:32">
+    <row r="20" ht="16.5" spans="1:32">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -4093,7 +4093,7 @@
       <c r="AE20" s="36"/>
       <c r="AF20" s="33"/>
     </row>
-    <row r="21" ht="15.6" spans="1:32">
+    <row r="21" ht="16.5" spans="1:32">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -4173,7 +4173,7 @@
       <c r="AE21" s="36"/>
       <c r="AF21" s="33"/>
     </row>
-    <row r="22" ht="15.6" spans="1:32">
+    <row r="22" ht="16.5" spans="1:32">
       <c r="A22" s="11">
         <v>18</v>
       </c>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="AF22" s="33"/>
     </row>
-    <row r="23" ht="15.6" spans="1:32">
+    <row r="23" ht="16.5" spans="1:32">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:32">
+    <row r="24" ht="16.5" spans="1:32">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="AE24" s="36"/>
       <c r="AF24" s="33"/>
     </row>
-    <row r="25" ht="15.6" spans="1:32">
+    <row r="25" ht="16.5" spans="1:32">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="AE25" s="36"/>
       <c r="AF25" s="33"/>
     </row>
-    <row r="26" ht="15.6" spans="1:32">
+    <row r="26" ht="16.5" spans="1:32">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="AE26" s="36"/>
       <c r="AF26" s="37"/>
     </row>
-    <row r="27" ht="15.6" spans="1:32">
+    <row r="27" ht="16.5" spans="1:32">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="AE27" s="36"/>
       <c r="AF27" s="37"/>
     </row>
-    <row r="28" ht="15.6" spans="1:32">
+    <row r="28" ht="16.5" spans="1:32">
       <c r="A28" s="11">
         <v>24</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="AE28" s="36"/>
       <c r="AF28" s="37"/>
     </row>
-    <row r="29" ht="15.6" spans="1:32">
+    <row r="29" ht="16.5" spans="1:32">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="AE29" s="36"/>
       <c r="AF29" s="37"/>
     </row>
-    <row r="30" ht="15.6" spans="1:32">
+    <row r="30" ht="16.5" spans="1:32">
       <c r="A30" s="11" t="s">
         <v>140</v>
       </c>
@@ -4843,7 +4843,7 @@
       <c r="AE30" s="36"/>
       <c r="AF30" s="37"/>
     </row>
-    <row r="31" ht="15.6" spans="1:32">
+    <row r="31" ht="16.5" spans="1:32">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -4877,7 +4877,7 @@
       <c r="AE31" s="15"/>
       <c r="AF31" s="38"/>
     </row>
-    <row r="32" ht="15.6" spans="1:32">
+    <row r="32" ht="16.5" spans="1:32">
       <c r="A32" s="14" t="s">
         <v>146</v>
       </c>
@@ -4923,7 +4923,7 @@
       <c r="AE32" s="15"/>
       <c r="AF32" s="38"/>
     </row>
-    <row r="33" ht="15.6" spans="1:31">
+    <row r="33" ht="16.5" spans="1:31">
       <c r="A33" s="14" t="s">
         <v>148</v>
       </c>
@@ -4968,7 +4968,7 @@
       <c r="AD33" s="15"/>
       <c r="AE33" s="15"/>
     </row>
-    <row r="34" ht="15.6" spans="1:31">
+    <row r="34" ht="16.5" spans="1:31">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -5001,7 +5001,7 @@
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
     </row>
-    <row r="35" ht="15.6" spans="1:31">
+    <row r="35" ht="16.5" spans="1:31">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5034,7 +5034,7 @@
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
     </row>
-    <row r="36" ht="15.6" spans="1:31">
+    <row r="36" ht="16.5" spans="1:31">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -5067,7 +5067,7 @@
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
     </row>
-    <row r="37" ht="15.6" spans="1:31">
+    <row r="37" ht="16.5" spans="1:31">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -5100,7 +5100,7 @@
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
     </row>
-    <row r="38" ht="15.6" spans="7:31">
+    <row r="38" ht="16.5" spans="7:31">
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
